--- a/assignment1_answers.xlsx
+++ b/assignment1_answers.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15220" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Conventional</t>
   </si>
@@ -400,10 +401,974 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Quasi-identifiers </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">Q </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMR10"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMSY10"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMMI10"/>
+      </rPr>
+      <t xml:space="preserve">, . . . , </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>q</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">k </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMSY10"/>
+      </rPr>
+      <t xml:space="preserve">} ⊆ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="URWChanceryL"/>
+      </rPr>
+      <t xml:space="preserve">A </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sensitive attributes </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">S </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMR10"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMSY10"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMMI10"/>
+      </rPr>
+      <t>,...,</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMSY10"/>
+      </rPr>
+      <t xml:space="preserve">} ⊆ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="URWChanceryL"/>
+      </rPr>
+      <t xml:space="preserve">A </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMSY10"/>
+      </rPr>
+      <t xml:space="preserve">∈ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">S </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMSY10"/>
+      </rPr>
+      <t xml:space="preserve">∈ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">Q </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMSY10"/>
+      </rPr>
+      <t xml:space="preserve">∈ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">S </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMSY10"/>
+      </rPr>
+      <t xml:space="preserve">∩ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">Q </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A database table </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMR10"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMMI10"/>
+      </rPr>
+      <t>,...,</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMR10"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">is a set of records over a set of attributes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMSY10"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMMI10"/>
+      </rPr>
+      <t>,...,</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMSY10"/>
+      </rPr>
+      <t xml:space="preserve">} ⊆ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="URWChanceryL"/>
+      </rPr>
+      <t xml:space="preserve">A </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We denote the records in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMR10"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMMI10"/>
+      </rPr>
+      <t>,...,</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMR10"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="CMR10"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="CMMI10"/>
+      </rPr>
+      <t>,...,</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="CMR10"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">r </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMSY10"/>
+      </rPr>
+      <t xml:space="preserve">∈ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="CMR10"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="CMMI10"/>
+      </rPr>
+      <t>,...,</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="CMR10"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMR10"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMR10"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">represents the value of attribute </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">i </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">r </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMSY10"/>
+      </rPr>
+      <t xml:space="preserve">∈ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="URWChanceryL"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">denotes the domain of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">a </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMSY10"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="CMSY10"/>
+      </rPr>
+      <t>∈</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="URWChanceryL"/>
+      </rPr>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMSY10"/>
+      </rPr>
+      <t xml:space="preserve">⊆ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">T </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMSY10"/>
+      </rPr>
+      <t xml:space="preserve">∪ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">I </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Each sensitive attribute takes values from a pre-specified domain. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Disease </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">can take a value from </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="NimbusSanL"/>
+      </rPr>
+      <t xml:space="preserve">{HIV, Heart Attack, Hypertension, Migraine, H1N1, Flu} </t>
+    </r>
+  </si>
+  <si>
+    <t>Attributes Job and City are quasi-identifiers</t>
+  </si>
+  <si>
+    <t>D(Job, City, Gender, Disease, Medication)</t>
+  </si>
+  <si>
+    <t>Disease and Medication are sensitive attributes</t>
+  </si>
+  <si>
+    <t>Attribute Gender belongs to both sets</t>
+  </si>
+  <si>
+    <t>records</t>
+  </si>
+  <si>
+    <t>record</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domain can be made up of types and instances </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{HIV, Heart Attack, Hypertension, Migraine, H1N1, Flu} </t>
+  </si>
+  <si>
+    <t>Each sensitive attribute takes values from a pre-specified domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can be used to reveal the identity of an individual </t>
+  </si>
+  <si>
+    <t>Rule</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Let </t>
     </r>
     <r>
       <rPr>
+        <b/>
         <i/>
         <sz val="12"/>
         <color theme="1"/>
@@ -413,6 +1378,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="NimbusRomNo9L"/>
@@ -422,16 +1388,128 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Quasi-identifiers </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t xml:space="preserve">Q </t>
+      <t xml:space="preserve">Definition 4 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">Let </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="URWChanceryL"/>
+      </rPr>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>be a set of attributes and C</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">the domain of an attribute a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Unicode"/>
+      </rPr>
+      <t>∈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMSY10"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="URWChanceryL"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">. The sensitivity score function f </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMSY10"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -439,14 +1517,489 @@
         <color theme="1"/>
         <rFont val="CMR10"/>
       </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMMI10"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMR10"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>assigns a sensitivity value to each value in C</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">F </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="CMR10"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="CMMI10"/>
+      </rPr>
+      <t>,...,</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">n </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="CMR10"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMR10"/>
+      </rPr>
       <t xml:space="preserve">= </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">1 (5) </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">r </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">as quasi-identifier values and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="CMSY10"/>
       </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="CMSY10"/>
+      </rPr>
+      <t>′</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMSY10"/>
+      </rPr>
+      <t xml:space="preserve">| </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>is the number of such records.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">final record score </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">for a leaked table </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMR10"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMMI10"/>
+      </rPr>
+      <t>,...,</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMR10"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">, denoted as </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>RS</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">, is calculated based on the raw </t>
+    </r>
+  </si>
+  <si>
+    <t>record score and distinguishing factor.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Definition 7 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>Let ST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMR10"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMMI10"/>
+      </rPr>
+      <t>,...,</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMR10"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>be a source table and L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMR10"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMMI10"/>
+      </rPr>
+      <t>,...,</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMR10"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">a leaked table with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMSY10"/>
+      </rPr>
       <t>{</t>
     </r>
     <r>
@@ -456,15 +2009,15 @@
         <color theme="1"/>
         <rFont val="NimbusRomNo9L"/>
       </rPr>
-      <t>q</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t xml:space="preserve">1 </t>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -472,25 +2025,25 @@
         <color theme="1"/>
         <rFont val="CMMI10"/>
       </rPr>
-      <t xml:space="preserve">, . . . , </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t>q</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t xml:space="preserve">k </t>
+      <t>,...,</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>m</t>
     </r>
     <r>
       <rPr>
@@ -500,57 +2053,416 @@
       </rPr>
       <t xml:space="preserve">} ⊆ </t>
     </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="URWChanceryL"/>
-      </rPr>
-      <t xml:space="preserve">A </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Sensitive attributes </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t xml:space="preserve">S </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMMI10"/>
+      </rPr>
+      <t>,...,</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMSY10"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>. Given the raw record score RRS and distinguishing factor DF</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>ST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="CMR10"/>
       </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="CMMI10"/>
+      </rPr>
+      <t>,...,</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="CMR10"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">for every record </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">nrr </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">r </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMSY10"/>
+      </rPr>
+      <t xml:space="preserve">∈ </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="CMR10"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="CMMI10"/>
+      </rPr>
+      <t>,...,</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="CMR10"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">, the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">final record score </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>of L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMR10"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMMI10"/>
+      </rPr>
+      <t>,...,</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMR10"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>is</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMR10"/>
+      </rPr>
       <t xml:space="preserve">= </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">max </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMR10"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">RRS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="CMSY10"/>
       </rPr>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>DF</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>ST</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="CMR10"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
         <color theme="1"/>
         <rFont val="NimbusRomNo9L"/>
       </rPr>
@@ -558,7 +2470,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="CMMI10"/>
       </rPr>
@@ -567,42 +2479,66 @@
     <r>
       <rPr>
         <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="CMR10"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="CMR10"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">(6) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="CMSY10"/>
       </rPr>
-      <t xml:space="preserve">} ⊆ </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="URWChanceryL"/>
-      </rPr>
-      <t xml:space="preserve">A </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">a </t>
+      <t xml:space="preserve">′ </t>
     </r>
     <r>
       <rPr>
@@ -610,770 +2546,15 @@
         <color theme="1"/>
         <rFont val="CMSY10"/>
       </rPr>
-      <t xml:space="preserve">∈ </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t xml:space="preserve">S </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="CMSY10"/>
-      </rPr>
-      <t xml:space="preserve">∈ </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t xml:space="preserve">Q </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="CMSY10"/>
-      </rPr>
-      <t xml:space="preserve">∈ </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t xml:space="preserve">S </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="CMSY10"/>
-      </rPr>
-      <t xml:space="preserve">∩ </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t xml:space="preserve">Q </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A database table </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="CMR10"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="CMMI10"/>
-      </rPr>
-      <t>,...,</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="CMR10"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t xml:space="preserve">is a set of records over a set of attributes </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="CMSY10"/>
-      </rPr>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="CMMI10"/>
-      </rPr>
-      <t>,...,</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="CMSY10"/>
-      </rPr>
-      <t xml:space="preserve">} ⊆ </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="URWChanceryL"/>
-      </rPr>
-      <t xml:space="preserve">A </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">We denote the records in </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="CMR10"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="CMMI10"/>
-      </rPr>
-      <t>,...,</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="CMR10"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t xml:space="preserve">as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="CMR10"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="CMMI10"/>
-      </rPr>
-      <t>,...,</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="CMR10"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">r </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="CMSY10"/>
-      </rPr>
-      <t xml:space="preserve">∈ </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="CMR10"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="CMMI10"/>
-      </rPr>
-      <t>,...,</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="CMR10"/>
-      </rPr>
-      <t xml:space="preserve">) </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="CMR10"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="CMR10"/>
-      </rPr>
-      <t xml:space="preserve">] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t xml:space="preserve">represents the value of attribute </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t xml:space="preserve">i </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t xml:space="preserve">in </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t xml:space="preserve">r </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="CMSY10"/>
-      </rPr>
-      <t xml:space="preserve">∈ </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="URWChanceryL"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t xml:space="preserve">a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t xml:space="preserve">denotes the domain of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t xml:space="preserve">a </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>{</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="CMSY10"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="CMSY10"/>
-      </rPr>
-      <t>∈</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="URWChanceryL"/>
-      </rPr>
-      <t xml:space="preserve">A </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="CMSY10"/>
-      </rPr>
-      <t xml:space="preserve">⊆ </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t xml:space="preserve">T </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="CMSY10"/>
-      </rPr>
-      <t xml:space="preserve">∪ </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t xml:space="preserve">I </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Each sensitive attribute takes values from a pre-specified domain. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Disease </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="NimbusRomNo9L"/>
-      </rPr>
-      <t xml:space="preserve">can take a value from </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="NimbusSanL"/>
-      </rPr>
-      <t xml:space="preserve">{HIV, Heart Attack, Hypertension, Migraine, H1N1, Flu} </t>
-    </r>
-  </si>
-  <si>
-    <t>Attributes Job and City are quasi-identifiers</t>
-  </si>
-  <si>
-    <t>D(Job, City, Gender, Disease, Medication)</t>
-  </si>
-  <si>
-    <t>Disease and Medication are sensitive attributes</t>
-  </si>
-  <si>
-    <t>Attribute Gender belongs to both sets</t>
-  </si>
-  <si>
-    <t>records</t>
-  </si>
-  <si>
-    <t>record</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domain can be made up of types and instances </t>
+      <t>|</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1501,6 +2682,30 @@
       <color theme="1"/>
       <name val="NimbusSanL"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="NimbusRomNo9L"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="URWChanceryL"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Lucida Sans Unicode"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1519,7 +2724,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1549,8 +2754,56 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1559,6 +2812,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1578,8 +2832,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="77">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1594,6 +2855,30 @@
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1608,9 +2893,53 @@
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="NimbusRomNo9L"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1671,10 +3000,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:A12" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:A12" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A1:A12"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Model" dataDxfId="2"/>
+    <tableColumn id="1" name="Model" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B13" totalsRowShown="0">
+  <autoFilter ref="A1:B13"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Rule" dataDxfId="1"/>
+    <tableColumn id="2" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2004,8 +3344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2062,7 +3402,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2071,52 +3411,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="5"/>
+      <c r="A5" s="6"/>
     </row>
     <row r="6" spans="1:3" ht="45">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="5"/>
+      <c r="A9" s="6"/>
     </row>
     <row r="10" spans="1:3" ht="30">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="5"/>
+      <c r="A11" s="6"/>
     </row>
     <row r="12" spans="1:3" ht="60">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
@@ -2127,7 +3467,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="6"/>
+      <c r="A13" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2147,110 +3487,212 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="47.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16">
+      <c r="A2" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="31">
+      <c r="A3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30">
+      <c r="A4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="45">
+      <c r="A5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30">
+      <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="31">
-      <c r="A2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16">
-      <c r="A3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30">
+      <c r="A7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30">
+      <c r="A8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16">
-      <c r="A5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="8" t="s">
+    <row r="12" spans="1:2" ht="30">
+      <c r="A12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30">
+      <c r="A13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="16">
-      <c r="A11" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="11" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="13"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="12"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="8" t="s">
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="12" t="s">
-        <v>30</v>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="46.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="64">
+      <c r="A1" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="D11" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="D13" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="D15" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="D16" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="12" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
